--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_14_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_14_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3112998.020644407</v>
+        <v>-3113768.034243475</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,13 +1260,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
-        <v>3.33498035419292</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S10" t="n">
         <v>6.876045741711437</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>221.491250179408</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.8929305869867</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>275.4960845576906</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.4226819530071</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.9732493819571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.372297286114</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>238.3511394944481</v>
+        <v>10.96709163976402</v>
       </c>
       <c r="Y11" t="n">
         <v>254.8579774720327</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.15322246584645</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>41.32853780429485</v>
@@ -1461,10 +1461,10 @@
         <v>13.68925120936299</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0759430815659</v>
+        <v>5.695981897545</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.876907513190611</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>166.71309989434</v>
+        <v>35.33313871031908</v>
       </c>
       <c r="T12" t="n">
-        <v>199.0862173745079</v>
+        <v>67.70625619048701</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9237785229719</v>
+        <v>206.0719667738059</v>
       </c>
       <c r="V12" t="n">
-        <v>101.4206259654044</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.39302401945659</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>74.30273459328347</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.3538804794597</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>275.4960845576906</v>
       </c>
       <c r="G14" t="n">
-        <v>204.030300286935</v>
+        <v>283.4226819530071</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.9732493819571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.5267252399467</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>134.3195016635162</v>
       </c>
       <c r="X14" t="n">
         <v>238.3511394944481</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.8579774720327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>41.32853780429485</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1695,7 +1695,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>125.217400644218</v>
+        <v>125.2174006442179</v>
       </c>
       <c r="G15" t="n">
         <v>5.695981897545</v>
@@ -1749,7 +1749,7 @@
         <v>120.3150219768987</v>
       </c>
       <c r="X15" t="n">
-        <v>74.39302401945659</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H18" t="n">
-        <v>71.83298764462099</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.5447696799981</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>57.72064189224857</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237785229719</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>167.1572983788828</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>227.8610711889763</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2296,7 +2296,7 @@
         <v>48.78344633468082</v>
       </c>
       <c r="V22" t="n">
-        <v>14.61429621774457</v>
+        <v>194.9179674238972</v>
       </c>
       <c r="W22" t="n">
         <v>48.99965123050757</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.3036712061526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>180.3036712061526</v>
       </c>
       <c r="T25" t="n">
-        <v>180.3036712061526</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>48.78344633468082</v>
@@ -2643,7 +2643,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>166.71309989434</v>
+        <v>16.58842658728142</v>
       </c>
       <c r="T27" t="n">
         <v>48.96154406744936</v>
       </c>
       <c r="U27" t="n">
-        <v>153.7392645003505</v>
+        <v>158.794725414025</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2925,7 +2925,7 @@
         <v>48.96154406744936</v>
       </c>
       <c r="U30" t="n">
-        <v>158.7947254140252</v>
+        <v>158.794725414025</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>230.8301978021264</v>
+        <v>230.8301978021265</v>
       </c>
       <c r="C32" t="n">
         <v>213.3692479096534</v>
@@ -3035,19 +3035,19 @@
         <v>202.7793977593288</v>
       </c>
       <c r="E32" t="n">
-        <v>230.0267262109076</v>
+        <v>230.0267262109077</v>
       </c>
       <c r="F32" t="n">
         <v>254.9724018803573</v>
       </c>
       <c r="G32" t="n">
-        <v>262.8989992756738</v>
+        <v>262.8989992756739</v>
       </c>
       <c r="H32" t="n">
-        <v>182.4495667046238</v>
+        <v>182.4495667046239</v>
       </c>
       <c r="I32" t="n">
-        <v>39.2923571970783</v>
+        <v>39.29235719707836</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>45.72052508377595</v>
+        <v>45.72052508377601</v>
       </c>
       <c r="T32" t="n">
-        <v>69.00304256261342</v>
+        <v>69.00304256261347</v>
       </c>
       <c r="U32" t="n">
-        <v>99.40200149623377</v>
+        <v>99.40200149623382</v>
       </c>
       <c r="V32" t="n">
-        <v>175.8486146087807</v>
+        <v>175.8486146087808</v>
       </c>
       <c r="W32" t="n">
-        <v>197.3373248560588</v>
+        <v>197.3373248560589</v>
       </c>
       <c r="X32" t="n">
         <v>217.8274568171149</v>
       </c>
       <c r="Y32" t="n">
-        <v>234.3342947946994</v>
+        <v>234.3342947946995</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>20.80485512696157</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,7 +3117,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>14.8094560329858</v>
+        <v>14.80945603298585</v>
       </c>
       <c r="T33" t="n">
-        <v>135.5151053741522</v>
+        <v>128.6806739061818</v>
       </c>
       <c r="U33" t="n">
         <v>225.9237785229719</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.92833632058313</v>
+        <v>27.92833632058318</v>
       </c>
       <c r="C34" t="n">
-        <v>15.34317723727366</v>
+        <v>15.34317723727372</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>15.86301037544959</v>
+        <v>15.86301037544964</v>
       </c>
       <c r="H34" t="n">
-        <v>8.329074382643658</v>
+        <v>8.329074382643714</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.3032743184913</v>
+        <v>15.30327431849136</v>
       </c>
       <c r="S34" t="n">
-        <v>68.20357910095773</v>
+        <v>68.20357910095778</v>
       </c>
       <c r="T34" t="n">
-        <v>75.08346550167413</v>
+        <v>75.08346550167418</v>
       </c>
       <c r="U34" t="n">
         <v>134.4031495794101</v>
       </c>
       <c r="V34" t="n">
-        <v>100.2339994624738</v>
+        <v>100.2339994624739</v>
       </c>
       <c r="W34" t="n">
-        <v>134.6193544752368</v>
+        <v>134.6193544752369</v>
       </c>
       <c r="X34" t="n">
-        <v>73.80601152768298</v>
+        <v>73.80601152768304</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.68100949074062</v>
+        <v>66.68100949074068</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>161.827155239513</v>
+        <v>161.8271552395129</v>
       </c>
       <c r="C35" t="n">
-        <v>144.36620534704</v>
+        <v>144.3662053470399</v>
       </c>
       <c r="D35" t="n">
-        <v>133.7763551967154</v>
+        <v>133.7763551967153</v>
       </c>
       <c r="E35" t="n">
-        <v>161.0236836482942</v>
+        <v>161.0236836482941</v>
       </c>
       <c r="F35" t="n">
-        <v>185.9693593177439</v>
+        <v>185.9693593177438</v>
       </c>
       <c r="G35" t="n">
-        <v>193.8959567130604</v>
+        <v>193.8959567130603</v>
       </c>
       <c r="H35" t="n">
-        <v>113.4465241420104</v>
+        <v>113.4465241420103</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.39895893362035</v>
+        <v>30.39895893362029</v>
       </c>
       <c r="V35" t="n">
         <v>106.8455720461673</v>
@@ -3332,7 +3332,7 @@
         <v>148.8244142545014</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.331252232086</v>
+        <v>165.3312522320859</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>65.4779413472771</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237785229719</v>
+        <v>161.3959260097799</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>119.5702972556748</v>
+        <v>119.5702972556751</v>
       </c>
       <c r="T37" t="n">
-        <v>6.080422939060717</v>
+        <v>6.08042293906066</v>
       </c>
       <c r="U37" t="n">
-        <v>65.40010701679667</v>
+        <v>65.40010701679661</v>
       </c>
       <c r="V37" t="n">
-        <v>31.23095689986042</v>
+        <v>31.23095689986036</v>
       </c>
       <c r="W37" t="n">
-        <v>65.61631191262342</v>
+        <v>65.61631191262336</v>
       </c>
       <c r="X37" t="n">
-        <v>4.802968965069567</v>
+        <v>4.80296896506951</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.01709209900429</v>
+        <v>209.5941134454318</v>
       </c>
       <c r="V39" t="n">
-        <v>216.4709220718852</v>
+        <v>11.89390072545768</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.080422939060717</v>
+        <v>125.6507201947356</v>
       </c>
       <c r="U40" t="n">
         <v>65.40010701679667</v>
@@ -3727,7 +3727,7 @@
         <v>4.802968965069567</v>
       </c>
       <c r="Y40" t="n">
-        <v>119.5702972556748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.9546374739201</v>
+        <v>179.95463747392</v>
       </c>
       <c r="C41" t="n">
-        <v>162.4936875814471</v>
+        <v>162.493687581447</v>
       </c>
       <c r="D41" t="n">
-        <v>151.9038374311225</v>
+        <v>151.9038374311224</v>
       </c>
       <c r="E41" t="n">
-        <v>179.1511658827013</v>
+        <v>179.1511658827012</v>
       </c>
       <c r="F41" t="n">
         <v>204.0968415521509</v>
       </c>
       <c r="G41" t="n">
-        <v>212.0234389474675</v>
+        <v>212.0234389474674</v>
       </c>
       <c r="H41" t="n">
-        <v>131.5740063764175</v>
+        <v>131.5740063764174</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.1274822344071</v>
+        <v>18.12748223440704</v>
       </c>
       <c r="U41" t="n">
-        <v>48.52644116802745</v>
+        <v>48.52644116802739</v>
       </c>
       <c r="V41" t="n">
         <v>124.9730542805744</v>
@@ -3806,7 +3806,7 @@
         <v>166.9518964889085</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.4587344664931</v>
+        <v>183.458734466493</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,7 +3828,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.4901299391674</v>
       </c>
       <c r="T42" t="n">
-        <v>171.1294165340997</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9237785229719</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.32801877275141</v>
+        <v>17.32801877275135</v>
       </c>
       <c r="T43" t="n">
-        <v>24.20790517346781</v>
+        <v>24.20790517346776</v>
       </c>
       <c r="U43" t="n">
-        <v>83.52758925120376</v>
+        <v>83.52758925120371</v>
       </c>
       <c r="V43" t="n">
-        <v>49.35843913426751</v>
+        <v>49.35843913426746</v>
       </c>
       <c r="W43" t="n">
-        <v>83.74379414703051</v>
+        <v>83.74379414703046</v>
       </c>
       <c r="X43" t="n">
-        <v>22.93045119947666</v>
+        <v>22.93045119947661</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.8054491625343</v>
+        <v>15.80544916253425</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.9546374739201</v>
+        <v>179.95463747392</v>
       </c>
       <c r="C44" t="n">
-        <v>162.4936875814471</v>
+        <v>162.493687581447</v>
       </c>
       <c r="D44" t="n">
-        <v>151.9038374311225</v>
+        <v>151.9038374311224</v>
       </c>
       <c r="E44" t="n">
-        <v>179.1511658827013</v>
+        <v>179.1511658827012</v>
       </c>
       <c r="F44" t="n">
         <v>204.0968415521509</v>
       </c>
       <c r="G44" t="n">
-        <v>212.0234389474675</v>
+        <v>212.0234389474674</v>
       </c>
       <c r="H44" t="n">
-        <v>131.5740063764175</v>
+        <v>131.5740063764174</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.1274822344071</v>
+        <v>18.12748223440704</v>
       </c>
       <c r="U44" t="n">
-        <v>48.52644116802745</v>
+        <v>48.52644116802739</v>
       </c>
       <c r="V44" t="n">
         <v>124.9730542805744</v>
@@ -4043,7 +4043,7 @@
         <v>166.9518964889085</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.4587344664931</v>
+        <v>183.458734466493</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4068,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>64.1241786537788</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>224.3446960687572</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,7 +4119,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>2.99378101391693</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>17.32801877275141</v>
+        <v>17.32801877275135</v>
       </c>
       <c r="T46" t="n">
-        <v>24.20790517346781</v>
+        <v>24.20790517346776</v>
       </c>
       <c r="U46" t="n">
-        <v>83.52758925120376</v>
+        <v>83.52758925120371</v>
       </c>
       <c r="V46" t="n">
-        <v>49.35843913426751</v>
+        <v>49.35843913426746</v>
       </c>
       <c r="W46" t="n">
-        <v>83.74379414703051</v>
+        <v>83.74379414703046</v>
       </c>
       <c r="X46" t="n">
-        <v>22.93045119947666</v>
+        <v>22.93045119947661</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.8054491625343</v>
+        <v>15.80544916253425</v>
       </c>
     </row>
   </sheetData>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>14.16465422792556</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M8" t="n">
-        <v>20.97193951221988</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N8" t="n">
-        <v>27.50418296684575</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="C9" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="D9" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="E9" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="F9" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="G9" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I9" t="n">
         <v>1.304216312122629</v>
@@ -4884,13 +4884,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M9" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N9" t="n">
         <v>13.8896123982571</v>
@@ -4908,25 +4908,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="T9" t="n">
         <v>13.6131814684388</v>
       </c>
-      <c r="T9" t="n">
-        <v>6.667680719235332</v>
-      </c>
       <c r="U9" t="n">
-        <v>6.667680719235332</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="V9" t="n">
-        <v>6.667680719235332</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="W9" t="n">
-        <v>6.667680719235332</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="X9" t="n">
-        <v>6.667680719235332</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="C10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="E10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="F10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="G10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="H10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5500836593369149</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4981,31 +4981,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
-        <v>21.38658590694733</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="S10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="T10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="U10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="V10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="W10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="X10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>798.0142562109214</v>
+        <v>1053.06779231999</v>
       </c>
       <c r="C11" t="n">
-        <v>561.7587707695208</v>
+        <v>1053.06779231999</v>
       </c>
       <c r="D11" t="n">
-        <v>561.7587707695208</v>
+        <v>1053.06779231999</v>
       </c>
       <c r="E11" t="n">
-        <v>308.6775496702875</v>
+        <v>799.9865712207568</v>
       </c>
       <c r="F11" t="n">
-        <v>30.39867637969093</v>
+        <v>521.7076979301603</v>
       </c>
       <c r="G11" t="n">
-        <v>30.39867637969093</v>
+        <v>235.42216060389</v>
       </c>
       <c r="H11" t="n">
         <v>30.39867637969093</v>
@@ -5075,16 +5075,16 @@
         <v>1519.933818984546</v>
       </c>
       <c r="V11" t="n">
-        <v>1519.933818984546</v>
+        <v>1321.577963139987</v>
       </c>
       <c r="W11" t="n">
-        <v>1519.933818984546</v>
+        <v>1321.577963139987</v>
       </c>
       <c r="X11" t="n">
-        <v>1279.175092222478</v>
+        <v>1310.500092796791</v>
       </c>
       <c r="Y11" t="n">
-        <v>1021.742791745677</v>
+        <v>1053.06779231999</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>377.9493810957374</v>
+        <v>134.483519372823</v>
       </c>
       <c r="C12" t="n">
-        <v>336.2033833136213</v>
+        <v>92.737521590707</v>
       </c>
       <c r="D12" t="n">
-        <v>319.9760051513811</v>
+        <v>76.51014342846673</v>
       </c>
       <c r="E12" t="n">
-        <v>293.4455816449366</v>
+        <v>49.97971992202223</v>
       </c>
       <c r="F12" t="n">
-        <v>279.6180551708325</v>
+        <v>36.1521934479182</v>
       </c>
       <c r="G12" t="n">
-        <v>141.1575066035942</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="H12" t="n">
         <v>30.39867637969093</v>
@@ -5121,19 +5121,19 @@
         <v>30.39867637969093</v>
       </c>
       <c r="K12" t="n">
-        <v>30.39867637969093</v>
+        <v>198.5315093071581</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8784154177991</v>
+        <v>486.0112483452663</v>
       </c>
       <c r="M12" t="n">
-        <v>694.0620356164743</v>
+        <v>598.7432884135778</v>
       </c>
       <c r="N12" t="n">
-        <v>1070.24565581515</v>
+        <v>974.9269086122531</v>
       </c>
       <c r="O12" t="n">
-        <v>1382.025123824168</v>
+        <v>1286.706376621272</v>
       </c>
       <c r="P12" t="n">
         <v>1519.933818984546</v>
@@ -5142,28 +5142,28 @@
         <v>1519.933818984546</v>
       </c>
       <c r="R12" t="n">
-        <v>1518.037952809606</v>
+        <v>1519.933818984546</v>
       </c>
       <c r="S12" t="n">
-        <v>1349.640882209263</v>
+        <v>1484.243779883214</v>
       </c>
       <c r="T12" t="n">
-        <v>1148.543692942083</v>
+        <v>1415.853622115045</v>
       </c>
       <c r="U12" t="n">
-        <v>920.3378560501924</v>
+        <v>1207.700120323322</v>
       </c>
       <c r="V12" t="n">
-        <v>817.8927793174607</v>
+        <v>972.5480120915795</v>
       </c>
       <c r="W12" t="n">
-        <v>563.655422589259</v>
+        <v>718.3106553633778</v>
       </c>
       <c r="X12" t="n">
-        <v>488.5109538827373</v>
+        <v>510.459155157845</v>
       </c>
       <c r="Y12" t="n">
-        <v>413.4576866167944</v>
+        <v>302.6988563928911</v>
       </c>
     </row>
     <row r="13">
@@ -5197,19 +5197,19 @@
         <v>30.39867637969093</v>
       </c>
       <c r="J13" t="n">
-        <v>83.74043787636414</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="K13" t="n">
-        <v>217.5616780336792</v>
+        <v>164.219916537006</v>
       </c>
       <c r="L13" t="n">
-        <v>407.959481969486</v>
+        <v>354.6177204728128</v>
       </c>
       <c r="M13" t="n">
-        <v>612.0260243881637</v>
+        <v>475.5672613811499</v>
       </c>
       <c r="N13" t="n">
-        <v>813.3750181363154</v>
+        <v>683.3088565641348</v>
       </c>
       <c r="O13" t="n">
         <v>869.1045576946425</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>767.8499831805661</v>
+        <v>1053.06779231999</v>
       </c>
       <c r="C14" t="n">
-        <v>767.8499831805661</v>
+        <v>1053.06779231999</v>
       </c>
       <c r="D14" t="n">
-        <v>767.8499831805661</v>
+        <v>1053.06779231999</v>
       </c>
       <c r="E14" t="n">
-        <v>514.7687620813329</v>
+        <v>799.9865712207563</v>
       </c>
       <c r="F14" t="n">
-        <v>236.4898887907364</v>
+        <v>521.7076979301597</v>
       </c>
       <c r="G14" t="n">
-        <v>30.39867637969093</v>
+        <v>235.42216060389</v>
       </c>
       <c r="H14" t="n">
         <v>30.39867637969093</v>
@@ -5306,22 +5306,22 @@
         <v>1519.933818984546</v>
       </c>
       <c r="T14" t="n">
-        <v>1519.933818984546</v>
+        <v>1429.50278338864</v>
       </c>
       <c r="U14" t="n">
-        <v>1519.933818984546</v>
+        <v>1429.50278338864</v>
       </c>
       <c r="V14" t="n">
-        <v>1519.933818984546</v>
+        <v>1429.50278338864</v>
       </c>
       <c r="W14" t="n">
-        <v>1519.933818984546</v>
+        <v>1293.826519082058</v>
       </c>
       <c r="X14" t="n">
-        <v>1279.175092222478</v>
+        <v>1053.06779231999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1021.742791745677</v>
+        <v>1053.06779231999</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>645.2593102686994</v>
+        <v>512.5522787696884</v>
       </c>
       <c r="C15" t="n">
         <v>470.8062809875724</v>
       </c>
       <c r="D15" t="n">
-        <v>321.8718713263212</v>
+        <v>321.8718713263211</v>
       </c>
       <c r="E15" t="n">
-        <v>162.6344163208657</v>
+        <v>162.6344163208656</v>
       </c>
       <c r="F15" t="n">
         <v>36.1521934479182</v>
@@ -5361,16 +5361,16 @@
         <v>30.39867637969093</v>
       </c>
       <c r="L15" t="n">
-        <v>222.5596682149026</v>
+        <v>317.8784154177991</v>
       </c>
       <c r="M15" t="n">
-        <v>598.7432884135778</v>
+        <v>694.0620356164743</v>
       </c>
       <c r="N15" t="n">
-        <v>974.9269086122531</v>
+        <v>1070.24565581515</v>
       </c>
       <c r="O15" t="n">
-        <v>1286.706376621272</v>
+        <v>1382.025123824168</v>
       </c>
       <c r="P15" t="n">
         <v>1519.933818984546</v>
@@ -5397,10 +5397,10 @@
         <v>1096.379414760243</v>
       </c>
       <c r="X15" t="n">
-        <v>1021.234946053721</v>
+        <v>888.5279145547104</v>
       </c>
       <c r="Y15" t="n">
-        <v>813.4746472887675</v>
+        <v>680.7676157897565</v>
       </c>
     </row>
     <row r="16">
@@ -5443,16 +5443,16 @@
         <v>407.959481969486</v>
       </c>
       <c r="M16" t="n">
-        <v>481.9598628159831</v>
+        <v>612.0260243881637</v>
       </c>
       <c r="N16" t="n">
-        <v>683.3088565641348</v>
+        <v>819.7676195711485</v>
       </c>
       <c r="O16" t="n">
-        <v>869.1045576946425</v>
+        <v>932.4666247077238</v>
       </c>
       <c r="P16" t="n">
-        <v>1023.336285705551</v>
+        <v>1086.698352718632</v>
       </c>
       <c r="Q16" t="n">
         <v>1086.698352718632</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>871.5886968566292</v>
+        <v>871.5886968566282</v>
       </c>
       <c r="C17" t="n">
-        <v>742.5487527506452</v>
+        <v>742.5487527506442</v>
       </c>
       <c r="D17" t="n">
-        <v>624.2056269783225</v>
+        <v>624.2056269783216</v>
       </c>
       <c r="E17" t="n">
-        <v>478.3399472145059</v>
+        <v>478.3399472145054</v>
       </c>
       <c r="F17" t="n">
-        <v>307.2766152593261</v>
+        <v>307.2766152593256</v>
       </c>
       <c r="G17" t="n">
         <v>128.2066192684733</v>
@@ -5513,16 +5513,16 @@
         <v>30.39867637969093</v>
       </c>
       <c r="J17" t="n">
-        <v>60.58931629025219</v>
+        <v>60.58931629025233</v>
       </c>
       <c r="K17" t="n">
-        <v>226.5820636478224</v>
+        <v>226.5820636478225</v>
       </c>
       <c r="L17" t="n">
-        <v>484.7873723698837</v>
+        <v>484.7873723698838</v>
       </c>
       <c r="M17" t="n">
-        <v>788.6970746328857</v>
+        <v>788.6970746328859</v>
       </c>
       <c r="N17" t="n">
         <v>1082.892356060502</v>
@@ -5549,16 +5549,16 @@
         <v>1506.012305599188</v>
       </c>
       <c r="V17" t="n">
-        <v>1414.871991090046</v>
+        <v>1414.871991090045</v>
       </c>
       <c r="W17" t="n">
         <v>1302.025908654359</v>
       </c>
       <c r="X17" t="n">
-        <v>1168.482723227707</v>
+        <v>1168.482723227706</v>
       </c>
       <c r="Y17" t="n">
-        <v>1018.265964086323</v>
+        <v>1018.265964086322</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>408.7292627366665</v>
+        <v>623.5656475867511</v>
       </c>
       <c r="C18" t="n">
-        <v>408.7292627366665</v>
+        <v>623.5656475867511</v>
       </c>
       <c r="D18" t="n">
-        <v>408.7292627366665</v>
+        <v>474.6312379254998</v>
       </c>
       <c r="E18" t="n">
-        <v>249.491807731211</v>
+        <v>315.3937829200443</v>
       </c>
       <c r="F18" t="n">
-        <v>102.957249758096</v>
+        <v>168.8592249469292</v>
       </c>
       <c r="G18" t="n">
-        <v>102.957249758096</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="H18" t="n">
         <v>30.39867637969093</v>
@@ -5595,49 +5595,49 @@
         <v>30.39867637969093</v>
       </c>
       <c r="K18" t="n">
-        <v>30.39867637969093</v>
+        <v>198.5315093071581</v>
       </c>
       <c r="L18" t="n">
-        <v>222.5596682149026</v>
+        <v>486.0112483452663</v>
       </c>
       <c r="M18" t="n">
-        <v>598.7432884135778</v>
+        <v>495.5346890604815</v>
       </c>
       <c r="N18" t="n">
-        <v>974.9269086122531</v>
+        <v>871.7183092591567</v>
       </c>
       <c r="O18" t="n">
-        <v>1286.706376621272</v>
+        <v>1183.497777268175</v>
       </c>
       <c r="P18" t="n">
-        <v>1519.933818984546</v>
+        <v>1416.72521963145</v>
       </c>
       <c r="Q18" t="n">
         <v>1519.933818984546</v>
       </c>
       <c r="R18" t="n">
-        <v>1435.545162742124</v>
+        <v>1519.933818984546</v>
       </c>
       <c r="S18" t="n">
-        <v>1267.148092141781</v>
+        <v>1519.933818984546</v>
       </c>
       <c r="T18" t="n">
-        <v>1267.148092141781</v>
+        <v>1461.630140305507</v>
       </c>
       <c r="U18" t="n">
-        <v>1038.94225524989</v>
+        <v>1461.630140305507</v>
       </c>
       <c r="V18" t="n">
-        <v>1038.94225524989</v>
+        <v>1461.630140305507</v>
       </c>
       <c r="W18" t="n">
-        <v>784.7048985216884</v>
+        <v>1207.392783577306</v>
       </c>
       <c r="X18" t="n">
-        <v>784.7048985216884</v>
+        <v>999.541283371773</v>
       </c>
       <c r="Y18" t="n">
-        <v>576.9445997567345</v>
+        <v>791.7809846068192</v>
       </c>
     </row>
     <row r="19">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>871.588696856629</v>
+        <v>871.5886968566289</v>
       </c>
       <c r="C20" t="n">
-        <v>742.5487527506453</v>
+        <v>742.548752750645</v>
       </c>
       <c r="D20" t="n">
-        <v>624.2056269783226</v>
+        <v>624.2056269783225</v>
       </c>
       <c r="E20" t="n">
         <v>478.3399472145061</v>
@@ -5750,16 +5750,16 @@
         <v>30.39867637969093</v>
       </c>
       <c r="J20" t="n">
-        <v>60.58931629025233</v>
+        <v>60.58931629025219</v>
       </c>
       <c r="K20" t="n">
-        <v>226.5820636478225</v>
+        <v>226.5820636478224</v>
       </c>
       <c r="L20" t="n">
         <v>484.7873723698837</v>
       </c>
       <c r="M20" t="n">
-        <v>788.6970746328858</v>
+        <v>788.6970746328857</v>
       </c>
       <c r="N20" t="n">
         <v>1082.892356060502</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>659.5581283006397</v>
+        <v>513.0235703275247</v>
       </c>
       <c r="C21" t="n">
-        <v>485.1050990195127</v>
+        <v>338.5705410463977</v>
       </c>
       <c r="D21" t="n">
-        <v>336.1706893582615</v>
+        <v>189.6361313851464</v>
       </c>
       <c r="E21" t="n">
-        <v>176.933234352806</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="F21" t="n">
         <v>30.39867637969093</v>
@@ -5841,13 +5841,13 @@
         <v>862.1948685439415</v>
       </c>
       <c r="N21" t="n">
-        <v>1208.154350975528</v>
+        <v>871.7183092591567</v>
       </c>
       <c r="O21" t="n">
-        <v>1519.933818984546</v>
+        <v>1183.497777268175</v>
       </c>
       <c r="P21" t="n">
-        <v>1519.933818984546</v>
+        <v>1416.72521963145</v>
       </c>
       <c r="Q21" t="n">
         <v>1519.933818984546</v>
@@ -5859,22 +5859,22 @@
         <v>1519.933818984546</v>
       </c>
       <c r="T21" t="n">
-        <v>1519.933818984546</v>
+        <v>1351.088063046281</v>
       </c>
       <c r="U21" t="n">
-        <v>1519.933818984546</v>
+        <v>1351.088063046281</v>
       </c>
       <c r="V21" t="n">
-        <v>1289.771120813863</v>
+        <v>1351.088063046281</v>
       </c>
       <c r="W21" t="n">
-        <v>1035.533764085662</v>
+        <v>1096.850706318079</v>
       </c>
       <c r="X21" t="n">
-        <v>1035.533764085662</v>
+        <v>888.9992061125465</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.7734653207078</v>
+        <v>681.2389073475927</v>
       </c>
     </row>
     <row r="22">
@@ -5944,13 +5944,13 @@
         <v>276.7801093639382</v>
       </c>
       <c r="V22" t="n">
-        <v>262.018193992479</v>
+        <v>79.89327358222383</v>
       </c>
       <c r="W22" t="n">
-        <v>212.5235967899461</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="X22" t="n">
-        <v>212.5235967899461</v>
+        <v>30.39867637969093</v>
       </c>
       <c r="Y22" t="n">
         <v>30.39867637969093</v>
@@ -6172,7 +6172,7 @@
         <v>326.0563177828077</v>
       </c>
       <c r="S25" t="n">
-        <v>326.0563177828077</v>
+        <v>143.9313973725525</v>
       </c>
       <c r="T25" t="n">
         <v>143.9313973725525</v>
@@ -6203,7 +6203,7 @@
         <v>1467.668723218725</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.347290426857</v>
+        <v>1250.347290426858</v>
       </c>
       <c r="D26" t="n">
         <v>1043.722675968651</v>
@@ -6215,7 +6215,7 @@
         <v>550.2306868778874</v>
       </c>
       <c r="G26" t="n">
-        <v>282.879202201151</v>
+        <v>282.8792022011505</v>
       </c>
       <c r="H26" t="n">
         <v>96.78977062648494</v>
@@ -6251,7 +6251,7 @@
         <v>2765.179048931624</v>
       </c>
       <c r="S26" t="n">
-        <v>2717.199760408319</v>
+        <v>2717.199760408318</v>
       </c>
       <c r="T26" t="n">
         <v>2645.702777461946</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>537.9284749264663</v>
+        <v>684.4630328995813</v>
       </c>
       <c r="C27" t="n">
-        <v>363.4754456453393</v>
+        <v>510.0100036184543</v>
       </c>
       <c r="D27" t="n">
-        <v>214.541035984088</v>
+        <v>361.075593957203</v>
       </c>
       <c r="E27" t="n">
-        <v>55.30358097863247</v>
+        <v>201.8381389517475</v>
       </c>
       <c r="F27" t="n">
         <v>55.30358097863247</v>
@@ -6330,25 +6330,25 @@
         <v>1984.290437959935</v>
       </c>
       <c r="S27" t="n">
-        <v>1815.893367359591</v>
+        <v>1967.534451508135</v>
       </c>
       <c r="T27" t="n">
-        <v>1766.437262240956</v>
+        <v>1918.0783463895</v>
       </c>
       <c r="U27" t="n">
-        <v>1611.145075876965</v>
+        <v>1757.67963385008</v>
       </c>
       <c r="V27" t="n">
-        <v>1375.992967645223</v>
+        <v>1522.527525618338</v>
       </c>
       <c r="W27" t="n">
-        <v>1121.755610917021</v>
+        <v>1268.290168890136</v>
       </c>
       <c r="X27" t="n">
-        <v>913.9041107114881</v>
+        <v>1060.438668684603</v>
       </c>
       <c r="Y27" t="n">
-        <v>706.1438119465342</v>
+        <v>852.6783699196494</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.82450804513434</v>
+        <v>100.6290089162626</v>
       </c>
       <c r="C28" t="n">
-        <v>73.52940926577142</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="D28" t="n">
-        <v>75.02351755172914</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="E28" t="n">
-        <v>78.67732110561361</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="F28" t="n">
         <v>83.33391013689965</v>
@@ -6379,55 +6379,55 @@
         <v>55.30358097863247</v>
       </c>
       <c r="I28" t="n">
-        <v>56.70964489654747</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J28" t="n">
-        <v>128.608671395028</v>
+        <v>127.202607477113</v>
       </c>
       <c r="K28" t="n">
-        <v>280.9871765541503</v>
+        <v>279.5811126362353</v>
       </c>
       <c r="L28" t="n">
-        <v>489.9422454917644</v>
+        <v>339.9127549998614</v>
       </c>
       <c r="M28" t="n">
-        <v>570.8022270950243</v>
+        <v>562.5365624203464</v>
       </c>
       <c r="N28" t="n">
-        <v>648.4776607058285</v>
+        <v>740.2014935918453</v>
       </c>
       <c r="O28" t="n">
-        <v>704.2072002641556</v>
+        <v>795.9310331501724</v>
       </c>
       <c r="P28" t="n">
-        <v>728.3727667028835</v>
+        <v>820.0965995889003</v>
       </c>
       <c r="Q28" t="n">
-        <v>810.2920987177721</v>
+        <v>820.0965995889003</v>
       </c>
       <c r="R28" t="n">
-        <v>793.0373059169772</v>
+        <v>802.8418067881054</v>
       </c>
       <c r="S28" t="n">
-        <v>722.3478618207616</v>
+        <v>732.1523626918898</v>
       </c>
       <c r="T28" t="n">
-        <v>644.7090375218023</v>
+        <v>654.5135383929305</v>
       </c>
       <c r="U28" t="n">
-        <v>507.1513404170491</v>
+        <v>516.9558412881772</v>
       </c>
       <c r="V28" t="n">
-        <v>404.1079363597062</v>
+        <v>413.9124372308344</v>
       </c>
       <c r="W28" t="n">
-        <v>266.3318504712895</v>
+        <v>276.1363513424177</v>
       </c>
       <c r="X28" t="n">
-        <v>189.9833837218162</v>
+        <v>199.7878845929444</v>
       </c>
       <c r="Y28" t="n">
-        <v>120.83188872683</v>
+        <v>130.6363895979583</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>1467.668723218726</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.347290426858</v>
+        <v>1250.347290426859</v>
       </c>
       <c r="D29" t="n">
         <v>1043.722675968652</v>
       </c>
       <c r="E29" t="n">
-        <v>809.5755075189516</v>
+        <v>809.5755075189518</v>
       </c>
       <c r="F29" t="n">
-        <v>550.230686877888</v>
+        <v>550.2306868778883</v>
       </c>
       <c r="G29" t="n">
-        <v>282.8792022011512</v>
+        <v>282.8792022011514</v>
       </c>
       <c r="H29" t="n">
-        <v>96.78977062648491</v>
+        <v>96.78977062648531</v>
       </c>
       <c r="I29" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1176474631816</v>
+        <v>234.1176474631817</v>
       </c>
       <c r="K29" t="n">
         <v>548.7338213947398</v>
@@ -6476,16 +6476,16 @@
         <v>1850.914393529383</v>
       </c>
       <c r="O29" t="n">
-        <v>2232.150444128817</v>
+        <v>2232.150444128816</v>
       </c>
       <c r="P29" t="n">
-        <v>2541.62898071773</v>
+        <v>2541.628980717729</v>
       </c>
       <c r="Q29" t="n">
         <v>2733.826136175392</v>
       </c>
       <c r="R29" t="n">
-        <v>2765.179048931623</v>
+        <v>2765.179048931624</v>
       </c>
       <c r="S29" t="n">
         <v>2717.199760408319</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>684.4630328995812</v>
+        <v>684.4630328995813</v>
       </c>
       <c r="C30" t="n">
-        <v>510.0100036184542</v>
+        <v>510.0100036184543</v>
       </c>
       <c r="D30" t="n">
         <v>361.075593957203</v>
@@ -6528,28 +6528,28 @@
         <v>201.8381389517475</v>
       </c>
       <c r="F30" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="G30" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="H30" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="I30" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J30" t="n">
-        <v>79.59153959977071</v>
+        <v>79.59153959977073</v>
       </c>
       <c r="K30" t="n">
-        <v>247.7243725272378</v>
+        <v>247.7243725272379</v>
       </c>
       <c r="L30" t="n">
-        <v>535.204111565346</v>
+        <v>535.2041115653461</v>
       </c>
       <c r="M30" t="n">
-        <v>922.6586291198328</v>
+        <v>922.6586291198329</v>
       </c>
       <c r="N30" t="n">
         <v>1336.074928234545</v>
@@ -6561,10 +6561,10 @@
         <v>1881.081838606838</v>
       </c>
       <c r="Q30" t="n">
-        <v>1984.290437959934</v>
+        <v>1984.290437959935</v>
       </c>
       <c r="R30" t="n">
-        <v>1984.290437959934</v>
+        <v>1984.290437959935</v>
       </c>
       <c r="S30" t="n">
         <v>1967.534451508135</v>
@@ -6576,7 +6576,7 @@
         <v>1757.67963385008</v>
       </c>
       <c r="V30" t="n">
-        <v>1522.527525618337</v>
+        <v>1522.527525618338</v>
       </c>
       <c r="W30" t="n">
         <v>1268.290168890136</v>
@@ -6585,7 +6585,7 @@
         <v>1060.438668684603</v>
       </c>
       <c r="Y30" t="n">
-        <v>852.6783699196492</v>
+        <v>852.6783699196494</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.6290089162625</v>
+        <v>100.6290089162626</v>
       </c>
       <c r="C31" t="n">
-        <v>83.33391013689962</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="D31" t="n">
-        <v>83.33391013689962</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="E31" t="n">
-        <v>83.33391013689962</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="F31" t="n">
-        <v>83.33391013689962</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="G31" t="n">
-        <v>65.51372737958123</v>
+        <v>65.51372737958124</v>
       </c>
       <c r="H31" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="I31" t="n">
-        <v>55.30358097863246</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J31" t="n">
-        <v>55.30358097863246</v>
+        <v>127.202607477113</v>
       </c>
       <c r="K31" t="n">
-        <v>59.05865956376681</v>
+        <v>279.5811126362353</v>
       </c>
       <c r="L31" t="n">
-        <v>268.0137285013809</v>
+        <v>439.902252560556</v>
       </c>
       <c r="M31" t="n">
-        <v>342.0141093478779</v>
+        <v>513.902633407053</v>
       </c>
       <c r="N31" t="n">
-        <v>419.6895429586822</v>
+        <v>591.5780670178573</v>
       </c>
       <c r="O31" t="n">
-        <v>624.0425090909972</v>
+        <v>647.3076065761844</v>
       </c>
       <c r="P31" t="n">
-        <v>796.8315021037131</v>
+        <v>820.0965995889003</v>
       </c>
       <c r="Q31" t="n">
         <v>820.0965995889003</v>
@@ -6664,7 +6664,7 @@
         <v>199.7878845929444</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.6363895979582</v>
+        <v>130.6363895979583</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1454.54005988255</v>
+        <v>1454.540059882552</v>
       </c>
       <c r="C32" t="n">
-        <v>1239.015567044517</v>
+        <v>1239.015567044518</v>
       </c>
       <c r="D32" t="n">
-        <v>1034.187892540144</v>
+        <v>1034.187892540146</v>
       </c>
       <c r="E32" t="n">
-        <v>801.8376640442779</v>
+        <v>801.8376640442792</v>
       </c>
       <c r="F32" t="n">
-        <v>544.2897833570482</v>
+        <v>544.2897833570496</v>
       </c>
       <c r="G32" t="n">
-        <v>278.7352386341461</v>
+        <v>278.7352386341463</v>
       </c>
       <c r="H32" t="n">
-        <v>94.44274701331403</v>
+        <v>94.4427470133141</v>
       </c>
       <c r="I32" t="n">
         <v>54.75349731929555</v>
       </c>
       <c r="J32" t="n">
-        <v>192.5240177063146</v>
+        <v>235.3287446525974</v>
       </c>
       <c r="K32" t="n">
-        <v>508.9013724866255</v>
+        <v>551.7060994329082</v>
       </c>
       <c r="L32" t="n">
-        <v>917.4912886314273</v>
+        <v>960.29601557771</v>
       </c>
       <c r="M32" t="n">
-        <v>1371.78559831717</v>
+        <v>1414.590325263453</v>
       </c>
       <c r="N32" t="n">
-        <v>1816.365487167527</v>
+        <v>1859.170214113809</v>
       </c>
       <c r="O32" t="n">
-        <v>2199.362718615713</v>
+        <v>2242.167445561995</v>
       </c>
       <c r="P32" t="n">
-        <v>2510.602436053378</v>
+        <v>2543.716529658363</v>
       </c>
       <c r="Q32" t="n">
-        <v>2704.560772359793</v>
+        <v>2737.674865964778</v>
       </c>
       <c r="R32" t="n">
-        <v>2737.674865964777</v>
+        <v>2737.674865964778</v>
       </c>
       <c r="S32" t="n">
         <v>2691.492517395307</v>
@@ -6731,19 +6731,19 @@
         <v>2621.792474402768</v>
       </c>
       <c r="U32" t="n">
-        <v>2521.386412285358</v>
+        <v>2521.38641228536</v>
       </c>
       <c r="V32" t="n">
-        <v>2343.761549044166</v>
+        <v>2343.761549044168</v>
       </c>
       <c r="W32" t="n">
-        <v>2144.43091787643</v>
+        <v>2144.430917876432</v>
       </c>
       <c r="X32" t="n">
-        <v>1924.403183717728</v>
+        <v>1924.403183717729</v>
       </c>
       <c r="Y32" t="n">
-        <v>1687.701875844294</v>
+        <v>1687.701875844296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>530.4749251378664</v>
+        <v>537.3783912671294</v>
       </c>
       <c r="C33" t="n">
-        <v>509.4599199591173</v>
+        <v>362.9253619860023</v>
       </c>
       <c r="D33" t="n">
-        <v>360.525510297866</v>
+        <v>213.990952324751</v>
       </c>
       <c r="E33" t="n">
-        <v>201.2880552924106</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="F33" t="n">
         <v>54.75349731929555</v>
@@ -6777,7 +6777,7 @@
         <v>54.75349731929555</v>
       </c>
       <c r="J33" t="n">
-        <v>79.04145594043379</v>
+        <v>79.04145594043381</v>
       </c>
       <c r="K33" t="n">
         <v>247.1742888679009</v>
@@ -6807,22 +6807,22 @@
         <v>1968.781307802632</v>
       </c>
       <c r="T33" t="n">
-        <v>1831.897362980256</v>
+        <v>1838.800829109519</v>
       </c>
       <c r="U33" t="n">
-        <v>1603.691526088365</v>
+        <v>1610.594992217628</v>
       </c>
       <c r="V33" t="n">
-        <v>1368.539417856623</v>
+        <v>1375.442883985886</v>
       </c>
       <c r="W33" t="n">
-        <v>1114.302061128421</v>
+        <v>1121.205527257684</v>
       </c>
       <c r="X33" t="n">
-        <v>906.4505609228884</v>
+        <v>913.3540270521512</v>
       </c>
       <c r="Y33" t="n">
-        <v>698.6902621579345</v>
+        <v>705.5937282871973</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.68810539542375</v>
+        <v>94.68810539542393</v>
       </c>
       <c r="C34" t="n">
-        <v>79.18994656989479</v>
+        <v>79.18994656989491</v>
       </c>
       <c r="D34" t="n">
-        <v>79.18994656989479</v>
+        <v>79.18994656989491</v>
       </c>
       <c r="E34" t="n">
-        <v>79.18994656989479</v>
+        <v>79.18994656989491</v>
       </c>
       <c r="F34" t="n">
-        <v>79.18994656989479</v>
+        <v>79.18994656989491</v>
       </c>
       <c r="G34" t="n">
-        <v>63.16670376641035</v>
+        <v>63.16670376641042</v>
       </c>
       <c r="H34" t="n">
         <v>54.75349731929555</v>
@@ -6862,46 +6862,46 @@
         <v>58.5085759044299</v>
       </c>
       <c r="L34" t="n">
-        <v>118.8402182680561</v>
+        <v>269.2248256907966</v>
       </c>
       <c r="M34" t="n">
-        <v>339.6434820302152</v>
+        <v>493.6098139600342</v>
       </c>
       <c r="N34" t="n">
-        <v>417.3189156410194</v>
+        <v>718.0881304865014</v>
       </c>
       <c r="O34" t="n">
-        <v>623.4330626220872</v>
+        <v>773.8176700448286</v>
       </c>
       <c r="P34" t="n">
-        <v>797.9832364835557</v>
+        <v>797.9832364835564</v>
       </c>
       <c r="Q34" t="n">
-        <v>797.9832364835557</v>
+        <v>797.9832364835564</v>
       </c>
       <c r="R34" t="n">
-        <v>782.5253836365948</v>
+        <v>782.5253836365955</v>
       </c>
       <c r="S34" t="n">
-        <v>713.6328794942133</v>
+        <v>713.6328794942139</v>
       </c>
       <c r="T34" t="n">
-        <v>637.7909951490878</v>
+        <v>637.7909951490884</v>
       </c>
       <c r="U34" t="n">
-        <v>502.0302379981686</v>
+        <v>502.0302379981691</v>
       </c>
       <c r="V34" t="n">
-        <v>400.7837738946597</v>
+        <v>400.7837738946601</v>
       </c>
       <c r="W34" t="n">
-        <v>264.804627960077</v>
+        <v>264.8046279600774</v>
       </c>
       <c r="X34" t="n">
-        <v>190.2531011644377</v>
+        <v>190.253101164438</v>
       </c>
       <c r="Y34" t="n">
-        <v>122.8985461232855</v>
+        <v>122.8985461232857</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>976.4062224952081</v>
+        <v>976.4062224952082</v>
       </c>
       <c r="C35" t="n">
-        <v>830.5817726497132</v>
+        <v>830.5817726497133</v>
       </c>
       <c r="D35" t="n">
-        <v>695.4541411378796</v>
+        <v>695.4541411378797</v>
       </c>
       <c r="E35" t="n">
-        <v>532.803955634552</v>
+        <v>532.8039556345523</v>
       </c>
       <c r="F35" t="n">
-        <v>344.9561179398613</v>
+        <v>344.9561179398615</v>
       </c>
       <c r="G35" t="n">
         <v>149.1016162094971</v>
@@ -6932,28 +6932,28 @@
         <v>34.50916758120383</v>
       </c>
       <c r="I35" t="n">
-        <v>63.9227460930836</v>
+        <v>63.92274609308365</v>
       </c>
       <c r="J35" t="n">
-        <v>94.11338600364488</v>
+        <v>141.6370783198765</v>
       </c>
       <c r="K35" t="n">
-        <v>260.1061333612151</v>
+        <v>307.6298256774467</v>
       </c>
       <c r="L35" t="n">
-        <v>518.3114420832765</v>
+        <v>565.835134399508</v>
       </c>
       <c r="M35" t="n">
-        <v>822.2211443462786</v>
+        <v>869.7448366625101</v>
       </c>
       <c r="N35" t="n">
-        <v>1116.416425773895</v>
+        <v>1163.940118090126</v>
       </c>
       <c r="O35" t="n">
-        <v>1349.02904979934</v>
+        <v>1396.552742115572</v>
       </c>
       <c r="P35" t="n">
-        <v>1509.884159814265</v>
+        <v>1557.407852130496</v>
       </c>
       <c r="Q35" t="n">
         <v>1600.981581014171</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>424.0359412178014</v>
+        <v>489.2155902210256</v>
       </c>
       <c r="C36" t="n">
-        <v>249.5829119366744</v>
+        <v>489.2155902210256</v>
       </c>
       <c r="D36" t="n">
-        <v>100.6485022754231</v>
+        <v>340.2811805597744</v>
       </c>
       <c r="E36" t="n">
-        <v>34.50916758120383</v>
+        <v>181.0437255543189</v>
       </c>
       <c r="F36" t="n">
         <v>34.50916758120383</v>
@@ -7014,25 +7014,25 @@
         <v>34.50916758120383</v>
       </c>
       <c r="J36" t="n">
-        <v>58.79712620234208</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="K36" t="n">
-        <v>222.1197559907691</v>
+        <v>92.10091298059086</v>
       </c>
       <c r="L36" t="n">
-        <v>509.5994950288773</v>
+        <v>379.5806520186991</v>
       </c>
       <c r="M36" t="n">
-        <v>897.0540125833641</v>
+        <v>767.0351695731858</v>
       </c>
       <c r="N36" t="n">
-        <v>1310.470311698076</v>
+        <v>1180.451468687898</v>
       </c>
       <c r="O36" t="n">
-        <v>1622.249779707095</v>
+        <v>1492.230936696917</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.249779707095</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="Q36" t="n">
         <v>1725.458379060191</v>
@@ -7047,19 +7047,19 @@
         <v>1725.458379060191</v>
       </c>
       <c r="U36" t="n">
-        <v>1497.2525421683</v>
+        <v>1562.432191171525</v>
       </c>
       <c r="V36" t="n">
-        <v>1262.100433936558</v>
+        <v>1327.280082939782</v>
       </c>
       <c r="W36" t="n">
-        <v>1007.863077208356</v>
+        <v>1073.04272621158</v>
       </c>
       <c r="X36" t="n">
-        <v>800.0115770028233</v>
+        <v>865.1912260060476</v>
       </c>
       <c r="Y36" t="n">
-        <v>592.2512782378694</v>
+        <v>657.4309272410937</v>
       </c>
     </row>
     <row r="37">
@@ -7120,19 +7120,19 @@
         <v>330.1668089843207</v>
       </c>
       <c r="S37" t="n">
-        <v>209.3887309482855</v>
+        <v>209.3887309482852</v>
       </c>
       <c r="T37" t="n">
-        <v>203.2468895956989</v>
+        <v>203.2468895956986</v>
       </c>
       <c r="U37" t="n">
-        <v>137.1861754373184</v>
+        <v>137.1861754373182</v>
       </c>
       <c r="V37" t="n">
-        <v>105.6397543263483</v>
+        <v>105.6397543263481</v>
       </c>
       <c r="W37" t="n">
-        <v>39.3606513843044</v>
+        <v>39.36065138430434</v>
       </c>
       <c r="X37" t="n">
         <v>34.50916758120383</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>976.4062224952079</v>
+        <v>976.4062224952081</v>
       </c>
       <c r="C38" t="n">
-        <v>830.581772649713</v>
+        <v>830.5817726497132</v>
       </c>
       <c r="D38" t="n">
-        <v>695.4541411378793</v>
+        <v>695.4541411378796</v>
       </c>
       <c r="E38" t="n">
         <v>532.803955634552</v>
@@ -7172,25 +7172,25 @@
         <v>63.9227460930836</v>
       </c>
       <c r="J38" t="n">
-        <v>141.6370783198765</v>
+        <v>94.11338600364488</v>
       </c>
       <c r="K38" t="n">
-        <v>307.6298256774467</v>
+        <v>260.1061333612151</v>
       </c>
       <c r="L38" t="n">
-        <v>565.835134399508</v>
+        <v>518.3114420832765</v>
       </c>
       <c r="M38" t="n">
-        <v>869.7448366625101</v>
+        <v>822.2211443462786</v>
       </c>
       <c r="N38" t="n">
-        <v>1163.940118090126</v>
+        <v>1116.416425773895</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.552742115572</v>
+        <v>1349.02904979934</v>
       </c>
       <c r="P38" t="n">
-        <v>1557.407852130497</v>
+        <v>1509.884159814265</v>
       </c>
       <c r="Q38" t="n">
         <v>1600.981581014171</v>
@@ -7251,25 +7251,25 @@
         <v>34.50916758120383</v>
       </c>
       <c r="J39" t="n">
-        <v>58.79712620234208</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="K39" t="n">
-        <v>226.9299591298092</v>
+        <v>92.10091298059086</v>
       </c>
       <c r="L39" t="n">
-        <v>514.4096981679174</v>
+        <v>379.5806520186991</v>
       </c>
       <c r="M39" t="n">
-        <v>901.8642157224042</v>
+        <v>767.0351695731858</v>
       </c>
       <c r="N39" t="n">
-        <v>1077.242869334802</v>
+        <v>1180.451468687898</v>
       </c>
       <c r="O39" t="n">
-        <v>1389.02233734382</v>
+        <v>1492.230936696917</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.249779707095</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="Q39" t="n">
         <v>1725.458379060191</v>
@@ -7284,7 +7284,7 @@
         <v>1725.458379060191</v>
       </c>
       <c r="U39" t="n">
-        <v>1720.390609263217</v>
+        <v>1513.747153357735</v>
       </c>
       <c r="V39" t="n">
         <v>1501.733112220909</v>
@@ -7360,19 +7360,19 @@
         <v>330.1668089843207</v>
       </c>
       <c r="T40" t="n">
-        <v>324.0249676317341</v>
+        <v>203.2468895956989</v>
       </c>
       <c r="U40" t="n">
-        <v>257.9642534733536</v>
+        <v>137.1861754373184</v>
       </c>
       <c r="V40" t="n">
-        <v>226.4178323623834</v>
+        <v>105.6397543263483</v>
       </c>
       <c r="W40" t="n">
-        <v>160.1387294203396</v>
+        <v>39.3606513843044</v>
       </c>
       <c r="X40" t="n">
-        <v>155.287245617239</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="Y40" t="n">
         <v>34.50916758120383</v>
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1091.127662321284</v>
+        <v>1091.127662321283</v>
       </c>
       <c r="C41" t="n">
-        <v>926.9926243602265</v>
+        <v>926.9926243602257</v>
       </c>
       <c r="D41" t="n">
-        <v>773.5544047328301</v>
+        <v>773.5544047328294</v>
       </c>
       <c r="E41" t="n">
-        <v>592.5936311139399</v>
+        <v>592.5936311139394</v>
       </c>
       <c r="F41" t="n">
-        <v>386.4352053036864</v>
+        <v>386.435205303686</v>
       </c>
       <c r="G41" t="n">
-        <v>172.2701154577602</v>
+        <v>172.2701154577601</v>
       </c>
       <c r="H41" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390412</v>
       </c>
       <c r="I41" t="n">
-        <v>50.83444981372087</v>
+        <v>50.83444981372092</v>
       </c>
       <c r="J41" t="n">
-        <v>81.02508972428214</v>
+        <v>281.7765018719471</v>
       </c>
       <c r="K41" t="n">
-        <v>247.0178370818524</v>
+        <v>447.7692492295174</v>
       </c>
       <c r="L41" t="n">
-        <v>505.2231458039137</v>
+        <v>705.9745579515786</v>
       </c>
       <c r="M41" t="n">
-        <v>809.1328480669158</v>
+        <v>1009.884260214581</v>
       </c>
       <c r="N41" t="n">
-        <v>1103.328129494532</v>
+        <v>1304.079541642197</v>
       </c>
       <c r="O41" t="n">
-        <v>1335.940753519977</v>
+        <v>1536.692165667642</v>
       </c>
       <c r="P41" t="n">
-        <v>1635.444411441973</v>
+        <v>1697.547275682567</v>
       </c>
       <c r="Q41" t="n">
-        <v>1879.769552473312</v>
+        <v>1879.769552473311</v>
       </c>
       <c r="R41" t="n">
         <v>1963.25045080322</v>
@@ -7439,13 +7439,13 @@
         <v>1968.353935695206</v>
       </c>
       <c r="T41" t="n">
-        <v>1950.043347579644</v>
+        <v>1950.043347579643</v>
       </c>
       <c r="U41" t="n">
-        <v>1901.026740339212</v>
+        <v>1901.026740339211</v>
       </c>
       <c r="V41" t="n">
-        <v>1774.791331974996</v>
+        <v>1774.791331974995</v>
       </c>
       <c r="W41" t="n">
         <v>1626.850155684235</v>
@@ -7454,7 +7454,7 @@
         <v>1458.211876402509</v>
       </c>
       <c r="Y41" t="n">
-        <v>1272.900023406052</v>
+        <v>1272.900023406051</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>494.0735013537259</v>
+        <v>521.9919726617379</v>
       </c>
       <c r="C42" t="n">
-        <v>494.0735013537259</v>
+        <v>347.5389433806109</v>
       </c>
       <c r="D42" t="n">
-        <v>345.1390916924747</v>
+        <v>198.6045337193596</v>
       </c>
       <c r="E42" t="n">
-        <v>185.9016366870192</v>
+        <v>39.36707871390412</v>
       </c>
       <c r="F42" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390412</v>
       </c>
       <c r="G42" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390412</v>
       </c>
       <c r="H42" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390412</v>
       </c>
       <c r="I42" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390412</v>
       </c>
       <c r="J42" t="n">
-        <v>63.65503733504238</v>
+        <v>63.65503733504218</v>
       </c>
       <c r="K42" t="n">
-        <v>231.7878702625096</v>
+        <v>231.7878702625093</v>
       </c>
       <c r="L42" t="n">
-        <v>519.267609300618</v>
+        <v>519.2676093006176</v>
       </c>
       <c r="M42" t="n">
-        <v>906.722126855105</v>
+        <v>906.7221268551043</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.138425969817</v>
+        <v>1320.138425969816</v>
       </c>
       <c r="O42" t="n">
-        <v>1631.917893978836</v>
+        <v>1631.917893978835</v>
       </c>
       <c r="P42" t="n">
         <v>1865.14533634211</v>
@@ -7515,25 +7515,25 @@
         <v>1968.353935695206</v>
       </c>
       <c r="S42" t="n">
-        <v>1968.353935695206</v>
+        <v>1823.414410504128</v>
       </c>
       <c r="T42" t="n">
-        <v>1795.495939196116</v>
+        <v>1823.414410504128</v>
       </c>
       <c r="U42" t="n">
-        <v>1567.290102304225</v>
+        <v>1595.208573612237</v>
       </c>
       <c r="V42" t="n">
-        <v>1332.137994072482</v>
+        <v>1360.056465380494</v>
       </c>
       <c r="W42" t="n">
-        <v>1077.900637344281</v>
+        <v>1105.819108652293</v>
       </c>
       <c r="X42" t="n">
-        <v>870.0491371387479</v>
+        <v>897.9676084467599</v>
       </c>
       <c r="Y42" t="n">
-        <v>662.288838373794</v>
+        <v>690.207309681806</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.6100906852641</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="C43" t="n">
-        <v>43.6100906852641</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="D43" t="n">
-        <v>43.6100906852641</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="E43" t="n">
-        <v>43.6100906852641</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="F43" t="n">
-        <v>43.6100906852641</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="G43" t="n">
-        <v>43.6100906852641</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="H43" t="n">
-        <v>43.6100906852641</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="I43" t="n">
-        <v>43.6100906852641</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="J43" t="n">
-        <v>43.6100906852641</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="K43" t="n">
-        <v>47.36516927039845</v>
+        <v>47.36516927039811</v>
       </c>
       <c r="L43" t="n">
-        <v>107.6968116340246</v>
+        <v>107.6968116340243</v>
       </c>
       <c r="M43" t="n">
-        <v>181.6971924805217</v>
+        <v>181.6971924805213</v>
       </c>
       <c r="N43" t="n">
-        <v>259.3726260913259</v>
+        <v>259.3726260913256</v>
       </c>
       <c r="O43" t="n">
-        <v>315.102165649653</v>
+        <v>315.1021656496526</v>
       </c>
       <c r="P43" t="n">
-        <v>339.2677320883809</v>
+        <v>339.2677320883806</v>
       </c>
       <c r="Q43" t="n">
-        <v>339.2677320883809</v>
+        <v>339.2677320883806</v>
       </c>
       <c r="R43" t="n">
-        <v>339.2677320883809</v>
+        <v>339.2677320883806</v>
       </c>
       <c r="S43" t="n">
-        <v>321.7646828229754</v>
+        <v>321.7646828229751</v>
       </c>
       <c r="T43" t="n">
-        <v>297.3122533548261</v>
+        <v>297.3122533548259</v>
       </c>
       <c r="U43" t="n">
-        <v>212.9409510808829</v>
+        <v>212.9409510808827</v>
       </c>
       <c r="V43" t="n">
-        <v>163.0839418543501</v>
+        <v>163.0839418543499</v>
       </c>
       <c r="W43" t="n">
-        <v>78.49425079674349</v>
+        <v>78.49425079674337</v>
       </c>
       <c r="X43" t="n">
-        <v>55.33217887808019</v>
+        <v>55.33217887808013</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390412</v>
       </c>
     </row>
     <row r="44">
@@ -7622,70 +7622,70 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1091.127662321285</v>
+        <v>1091.127662321284</v>
       </c>
       <c r="C44" t="n">
-        <v>926.992624360227</v>
+        <v>926.9926243602267</v>
       </c>
       <c r="D44" t="n">
-        <v>773.5544047328306</v>
+        <v>773.5544047328303</v>
       </c>
       <c r="E44" t="n">
-        <v>592.5936311139405</v>
+        <v>592.5936311139402</v>
       </c>
       <c r="F44" t="n">
-        <v>386.4352053036871</v>
+        <v>386.4352053036868</v>
       </c>
       <c r="G44" t="n">
-        <v>172.2701154577602</v>
+        <v>172.2701154577601</v>
       </c>
       <c r="H44" t="n">
-        <v>39.36707871390416</v>
+        <v>39.36707871390413</v>
       </c>
       <c r="I44" t="n">
-        <v>50.8344498137209</v>
+        <v>50.83444981372093</v>
       </c>
       <c r="J44" t="n">
-        <v>219.6736376313544</v>
+        <v>81.0250897242822</v>
       </c>
       <c r="K44" t="n">
-        <v>385.6663849889247</v>
+        <v>247.0178370818524</v>
       </c>
       <c r="L44" t="n">
-        <v>643.8716937109859</v>
+        <v>505.2231458039137</v>
       </c>
       <c r="M44" t="n">
-        <v>947.7813959739881</v>
+        <v>809.1328480669158</v>
       </c>
       <c r="N44" t="n">
-        <v>1241.976677401604</v>
+        <v>1103.328129494532</v>
       </c>
       <c r="O44" t="n">
-        <v>1474.58930142705</v>
+        <v>1536.692165667642</v>
       </c>
       <c r="P44" t="n">
-        <v>1635.444411441974</v>
+        <v>1836.195823589638</v>
       </c>
       <c r="Q44" t="n">
-        <v>1879.769552473313</v>
+        <v>1879.769552473312</v>
       </c>
       <c r="R44" t="n">
-        <v>1963.250450803222</v>
+        <v>1963.25045080322</v>
       </c>
       <c r="S44" t="n">
-        <v>1968.353935695208</v>
+        <v>1968.353935695206</v>
       </c>
       <c r="T44" t="n">
-        <v>1950.043347579645</v>
+        <v>1950.043347579644</v>
       </c>
       <c r="U44" t="n">
-        <v>1901.026740339213</v>
+        <v>1901.026740339212</v>
       </c>
       <c r="V44" t="n">
         <v>1774.791331974996</v>
       </c>
       <c r="W44" t="n">
-        <v>1626.850155684236</v>
+        <v>1626.850155684235</v>
       </c>
       <c r="X44" t="n">
         <v>1458.21187640251</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>668.526530634853</v>
+        <v>806.9870792020912</v>
       </c>
       <c r="C45" t="n">
-        <v>494.073501353726</v>
+        <v>632.5340499209642</v>
       </c>
       <c r="D45" t="n">
-        <v>345.1390916924747</v>
+        <v>483.5996402597129</v>
       </c>
       <c r="E45" t="n">
-        <v>185.9016366870192</v>
+        <v>324.3621852542574</v>
       </c>
       <c r="F45" t="n">
-        <v>39.36707871390416</v>
+        <v>177.8276272811424</v>
       </c>
       <c r="G45" t="n">
-        <v>39.36707871390416</v>
+        <v>39.36707871390413</v>
       </c>
       <c r="H45" t="n">
-        <v>39.36707871390416</v>
+        <v>39.36707871390413</v>
       </c>
       <c r="I45" t="n">
-        <v>39.36707871390416</v>
+        <v>39.36707871390413</v>
       </c>
       <c r="J45" t="n">
-        <v>63.65503733504377</v>
+        <v>63.65503733504241</v>
       </c>
       <c r="K45" t="n">
-        <v>231.7878702625109</v>
+        <v>231.7878702625095</v>
       </c>
       <c r="L45" t="n">
-        <v>519.2676093006191</v>
+        <v>519.267609300618</v>
       </c>
       <c r="M45" t="n">
-        <v>906.7221268551059</v>
+        <v>906.7221268551048</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.138425969818</v>
+        <v>1320.138425969817</v>
       </c>
       <c r="O45" t="n">
-        <v>1631.917893978837</v>
+        <v>1631.917893978836</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.145336342111</v>
+        <v>1865.14533634211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1968.353935695208</v>
+        <v>1968.353935695206</v>
       </c>
       <c r="R45" t="n">
-        <v>1968.353935695208</v>
+        <v>1968.353935695206</v>
       </c>
       <c r="S45" t="n">
-        <v>1968.353935695208</v>
+        <v>1903.582038065127</v>
       </c>
       <c r="T45" t="n">
-        <v>1968.353935695208</v>
+        <v>1903.582038065127</v>
       </c>
       <c r="U45" t="n">
-        <v>1741.743131585352</v>
+        <v>1675.376201173236</v>
       </c>
       <c r="V45" t="n">
-        <v>1506.591023353609</v>
+        <v>1440.224092941493</v>
       </c>
       <c r="W45" t="n">
-        <v>1252.353666625408</v>
+        <v>1185.986736213292</v>
       </c>
       <c r="X45" t="n">
-        <v>1044.502166419875</v>
+        <v>1182.962714987113</v>
       </c>
       <c r="Y45" t="n">
-        <v>836.741867654921</v>
+        <v>975.2024162221592</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.36707871390416</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="C46" t="n">
-        <v>39.36707871390416</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="D46" t="n">
-        <v>39.36707871390416</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="E46" t="n">
-        <v>39.36707871390416</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="F46" t="n">
-        <v>39.36707871390416</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="G46" t="n">
-        <v>39.36707871390416</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="H46" t="n">
-        <v>39.36707871390416</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="I46" t="n">
-        <v>43.6100906852641</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="J46" t="n">
-        <v>43.6100906852641</v>
+        <v>43.61009068526376</v>
       </c>
       <c r="K46" t="n">
-        <v>47.36516927039845</v>
+        <v>47.36516927039811</v>
       </c>
       <c r="L46" t="n">
-        <v>107.6968116340246</v>
+        <v>107.6968116340243</v>
       </c>
       <c r="M46" t="n">
-        <v>181.6971924805217</v>
+        <v>181.6971924805213</v>
       </c>
       <c r="N46" t="n">
-        <v>259.3726260913259</v>
+        <v>259.3726260913256</v>
       </c>
       <c r="O46" t="n">
-        <v>315.102165649653</v>
+        <v>315.1021656496526</v>
       </c>
       <c r="P46" t="n">
-        <v>339.2677320883809</v>
+        <v>339.2677320883806</v>
       </c>
       <c r="Q46" t="n">
-        <v>339.2677320883809</v>
+        <v>339.2677320883806</v>
       </c>
       <c r="R46" t="n">
-        <v>339.2677320883809</v>
+        <v>339.2677320883806</v>
       </c>
       <c r="S46" t="n">
-        <v>321.7646828229754</v>
+        <v>321.7646828229751</v>
       </c>
       <c r="T46" t="n">
-        <v>297.3122533548261</v>
+        <v>297.3122533548259</v>
       </c>
       <c r="U46" t="n">
-        <v>212.9409510808829</v>
+        <v>212.9409510808827</v>
       </c>
       <c r="V46" t="n">
-        <v>163.0839418543501</v>
+        <v>163.0839418543499</v>
       </c>
       <c r="W46" t="n">
-        <v>78.49425079674351</v>
+        <v>78.49425079674337</v>
       </c>
       <c r="X46" t="n">
-        <v>55.33217887808022</v>
+        <v>55.33217887808014</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.36707871390416</v>
+        <v>39.36707871390413</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>237.2222789689842</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
-        <v>236.0112893083342</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>138.2177578250447</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>149.4722901861559</v>
@@ -8769,13 +8769,13 @@
         <v>101.5577438039056</v>
       </c>
       <c r="K12" t="n">
-        <v>94.63409264139968</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.3203189461499</v>
+        <v>188.2076117437623</v>
       </c>
       <c r="N12" t="n">
         <v>441.7336077616981</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>222.1812058087287</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>105.826177278176</v>
@@ -9009,7 +9009,7 @@
         <v>94.63409264139968</v>
       </c>
       <c r="L15" t="n">
-        <v>274.5587824722506</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>454.3203189461499</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>222.1812058087287</v>
       </c>
       <c r="Q15" t="n">
         <v>105.826177278176</v>
@@ -9243,13 +9243,13 @@
         <v>101.5577438039056</v>
       </c>
       <c r="K18" t="n">
-        <v>94.63409264139968</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>274.5587824722506</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.3203189461499</v>
+        <v>83.95650128608929</v>
       </c>
       <c r="N18" t="n">
         <v>441.7336077616981</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.826177278176</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,16 +9489,16 @@
         <v>454.3203189461499</v>
       </c>
       <c r="N21" t="n">
-        <v>411.2041756737294</v>
+        <v>71.36979010163748</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>82.87949352551848</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.826177278176</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>101.5577438039056</v>
       </c>
       <c r="K36" t="n">
-        <v>259.6064459630431</v>
+        <v>152.8075728428007</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>82.87949352551846</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>105.826177278176</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>101.5577438039056</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>152.8075728428007</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>238.9003081795992</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>105.826177278176</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404086</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404102</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.86263030005167</v>
+        <v>251.3538804794597</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.8929305869867</v>
       </c>
       <c r="D11" t="n">
         <v>223.3030804366621</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.4226819530071</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.9732493819571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>59.81603987441159</v>
@@ -23312,16 +23312,16 @@
         <v>89.5267252399467</v>
       </c>
       <c r="U11" t="n">
-        <v>119.925684173567</v>
+        <v>119.9256841735671</v>
       </c>
       <c r="V11" t="n">
-        <v>196.372297286114</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>217.8610075333921</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>227.3840478546841</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.3538804794597</v>
       </c>
       <c r="C14" t="n">
         <v>233.8929305869867</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>79.39238166607208</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>202.9732493819571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>59.81603987441159</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.24420776110901</v>
+        <v>66.24420776110922</v>
       </c>
       <c r="T14" t="n">
-        <v>89.5267252399467</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>119.925684173567</v>
@@ -23555,13 +23555,13 @@
         <v>196.372297286114</v>
       </c>
       <c r="W14" t="n">
-        <v>217.8610075333921</v>
+        <v>83.54150586987596</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.8579774720327</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81927.63387170385</v>
+        <v>81927.63387170386</v>
       </c>
       <c r="C2" t="n">
-        <v>81927.63387170383</v>
+        <v>81927.63387170386</v>
       </c>
       <c r="D2" t="n">
-        <v>82037.10051991187</v>
+        <v>82037.10051991185</v>
       </c>
       <c r="E2" t="n">
-        <v>70249.28845906429</v>
+        <v>70249.28845906434</v>
       </c>
       <c r="F2" t="n">
-        <v>70249.28845906429</v>
+        <v>70249.28845906426</v>
       </c>
       <c r="G2" t="n">
         <v>82104.17698642841</v>
       </c>
       <c r="H2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642843</v>
       </c>
       <c r="J2" t="n">
         <v>82104.17698642843</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642831</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="O2" t="n">
         <v>82104.17698642841</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642844</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86337.88518108655</v>
+        <v>86337.88518108649</v>
       </c>
       <c r="M3" t="n">
-        <v>85120.19345298689</v>
+        <v>85120.19345298695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35296.30877041438</v>
+        <v>35296.30877041441</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,10 +26442,10 @@
         <v>350004.9802630958</v>
       </c>
       <c r="K4" t="n">
-        <v>350004.9802630958</v>
+        <v>350004.9802630957</v>
       </c>
       <c r="L4" t="n">
-        <v>349970.3919852082</v>
+        <v>349970.3919852081</v>
       </c>
       <c r="M4" t="n">
         <v>350924.8970335764</v>
@@ -26494,13 +26494,13 @@
         <v>57363.43949289199</v>
       </c>
       <c r="K5" t="n">
-        <v>57363.43949289198</v>
+        <v>57363.43949289199</v>
       </c>
       <c r="L5" t="n">
         <v>57094.932187325</v>
       </c>
       <c r="M5" t="n">
-        <v>47510.25837157164</v>
+        <v>47510.25837157165</v>
       </c>
       <c r="N5" t="n">
         <v>47510.25837157164</v>
@@ -26509,7 +26509,7 @@
         <v>49678.3115284595</v>
       </c>
       <c r="P5" t="n">
-        <v>49678.31152845952</v>
+        <v>49678.3115284595</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-371847.7350178274</v>
+        <v>-371852.1485956955</v>
       </c>
       <c r="C6" t="n">
-        <v>-371847.7350178274</v>
+        <v>-371852.1485956955</v>
       </c>
       <c r="D6" t="n">
-        <v>-374090.5899181746</v>
+        <v>-374092.2668298376</v>
       </c>
       <c r="E6" t="n">
-        <v>-568141.7505414021</v>
+        <v>-568438.1227545863</v>
       </c>
       <c r="F6" t="n">
-        <v>-251694.0083694383</v>
+        <v>-251990.3805826224</v>
       </c>
       <c r="G6" t="n">
         <v>-401103.8935301621</v>
@@ -26540,19 +26540,19 @@
         <v>-316189.1847925121</v>
       </c>
       <c r="I6" t="n">
-        <v>-316189.1847925121</v>
+        <v>-316189.184792512</v>
       </c>
       <c r="J6" t="n">
         <v>-441902.0084136244</v>
       </c>
       <c r="K6" t="n">
-        <v>-325264.2427695594</v>
+        <v>-325264.2427695593</v>
       </c>
       <c r="L6" t="n">
-        <v>-411299.0323671914</v>
+        <v>-411299.0323671913</v>
       </c>
       <c r="M6" t="n">
-        <v>-401451.1718717066</v>
+        <v>-401451.1718717067</v>
       </c>
       <c r="N6" t="n">
         <v>-316330.9784187197</v>
@@ -26713,7 +26713,7 @@
         <v>150.1246733070585</v>
       </c>
       <c r="L2" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="M2" t="n">
         <v>220.9066864239676</v>
@@ -26814,10 +26814,10 @@
         <v>691.2947622329059</v>
       </c>
       <c r="K4" t="n">
-        <v>691.2947622329058</v>
+        <v>691.2947622329059</v>
       </c>
       <c r="L4" t="n">
-        <v>684.4187164911943</v>
+        <v>684.4187164911945</v>
       </c>
       <c r="M4" t="n">
         <v>431.3645947650478</v>
@@ -26826,10 +26826,10 @@
         <v>431.3645947650478</v>
       </c>
       <c r="O4" t="n">
+        <v>492.0884839238015</v>
+      </c>
+      <c r="P4" t="n">
         <v>492.0884839238016</v>
-      </c>
-      <c r="P4" t="n">
-        <v>492.0884839238019</v>
       </c>
     </row>
   </sheetData>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>107.9223564763582</v>
+        <v>107.9223564763581</v>
       </c>
       <c r="M2" t="n">
-        <v>69.00304256261342</v>
+        <v>69.00304256261353</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.8538051505889</v>
+        <v>25.85380515058895</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120.0532872782786</v>
+        <v>120.0532872782785</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>60.72388915875382</v>
+        <v>60.72388915875371</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>347.8069958789715</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.892868265313084</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>321.6958373808355</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>193.2886829531102</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>220.6315523179333</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>200.3728660142628</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28029,13 +28029,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>148.5744291855468</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>86.48313437496134</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>18.93451147168993</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
-        <v>173.9584110229766</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
         <v>217.1405522952608</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.3799611840209</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>131.3799611840209</v>
@@ -28181,10 +28181,10 @@
         <v>131.3799611840209</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I12" t="n">
         <v>80.18410416320771</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>81.66786216680748</v>
+        <v>83.5447696799981</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>19.85181174916602</v>
       </c>
       <c r="V12" t="n">
-        <v>131.3799611840209</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>131.3799611840209</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.3799611840209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28269,7 +28269,7 @@
         <v>131.3799611840209</v>
       </c>
       <c r="J13" t="n">
-        <v>131.3799611840209</v>
+        <v>77.49939401566411</v>
       </c>
       <c r="K13" t="n">
         <v>131.3799611840209</v>
@@ -28278,13 +28278,13 @@
         <v>131.3799611840209</v>
       </c>
       <c r="M13" t="n">
+        <v>47.4233940018586</v>
+      </c>
+      <c r="N13" t="n">
         <v>131.3799611840209</v>
       </c>
-      <c r="N13" t="n">
-        <v>124.9227880175227</v>
-      </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="P13" t="n">
         <v>131.3799611840209</v>
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>19.85181174916588</v>
+        <v>19.85181174916593</v>
       </c>
       <c r="G15" t="n">
         <v>131.3799611840209</v>
@@ -28469,7 +28469,7 @@
         <v>131.3799611840209</v>
       </c>
       <c r="X15" t="n">
-        <v>131.3799611840209</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28515,19 +28515,19 @@
         <v>131.3799611840209</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="N16" t="n">
-        <v>124.9227880175227</v>
+        <v>131.3799611840209</v>
       </c>
       <c r="O16" t="n">
-        <v>131.3799611840209</v>
+        <v>57.54491472550319</v>
       </c>
       <c r="P16" t="n">
         <v>131.3799611840209</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.3799611840209</v>
+        <v>67.37787329201959</v>
       </c>
       <c r="R16" t="n">
         <v>131.3799611840209</v>
@@ -28646,7 +28646,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,10 +28655,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>37.81825427704329</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I18" t="n">
         <v>80.18410416320771</v>
@@ -28688,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.5447696799981</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0862173745079</v>
+        <v>141.3655754822593</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.0759430815659</v>
@@ -28931,19 +28931,19 @@
         <v>166.71309989434</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0862173745079</v>
+        <v>31.92891899562508</v>
       </c>
       <c r="U21" t="n">
         <v>225.9237785229719</v>
       </c>
       <c r="V21" t="n">
-        <v>4.939515960448972</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>237.5233471060834</v>
       </c>
       <c r="V22" t="n">
-        <v>237.5233471060834</v>
+        <v>57.21967589993076</v>
       </c>
       <c r="W22" t="n">
         <v>237.5233471060834</v>
@@ -29025,7 +29025,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.28098214594215</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29244,10 +29244,10 @@
         <v>167.2069181798455</v>
       </c>
       <c r="S25" t="n">
-        <v>220.1072229623119</v>
+        <v>39.80355175615929</v>
       </c>
       <c r="T25" t="n">
-        <v>46.6834381568757</v>
+        <v>226.9871093630283</v>
       </c>
       <c r="U25" t="n">
         <v>237.5233471060834</v>
@@ -29317,10 +29317,10 @@
         <v>150.1246733070585</v>
       </c>
       <c r="Q26" t="n">
+        <v>150.124673307059</v>
+      </c>
+      <c r="R26" t="n">
         <v>150.1246733070585</v>
-      </c>
-      <c r="R26" t="n">
-        <v>150.1246733070591</v>
       </c>
       <c r="S26" t="n">
         <v>150.1246733070585</v>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.0759430815659</v>
@@ -29402,13 +29402,13 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="T27" t="n">
         <v>150.1246733070585</v>
       </c>
       <c r="U27" t="n">
-        <v>72.18451402262141</v>
+        <v>67.12905310894689</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29436,13 +29436,13 @@
         <v>150.1246733070585</v>
       </c>
       <c r="D28" t="n">
-        <v>150.1246733070585</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>150.1246733070585</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>150.1246733070585</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>150.1246733070585</v>
@@ -29451,7 +29451,7 @@
         <v>150.1246733070585</v>
       </c>
       <c r="I28" t="n">
-        <v>150.1246733070585</v>
+        <v>148.704406723306</v>
       </c>
       <c r="J28" t="n">
         <v>150.1246733070585</v>
@@ -29460,13 +29460,13 @@
         <v>150.1246733070585</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>150.1246733070585</v>
       </c>
-      <c r="M28" t="n">
-        <v>6.928889653295741</v>
-      </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>100.9994924855502</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.1246733070585</v>
+        <v>67.37787329201959</v>
       </c>
       <c r="R28" t="n">
         <v>150.1246733070585</v>
@@ -29645,7 +29645,7 @@
         <v>150.1246733070585</v>
       </c>
       <c r="U30" t="n">
-        <v>67.12905310894666</v>
+        <v>67.12905310894689</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29691,13 +29691,13 @@
         <v>148.704406723306</v>
       </c>
       <c r="J31" t="n">
-        <v>77.49939401566411</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="L31" t="n">
-        <v>150.1246733070585</v>
+        <v>100.9994924855501</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29706,13 +29706,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>150.1246733070585</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.87797176190564</v>
+        <v>67.37787329201959</v>
       </c>
       <c r="R31" t="n">
         <v>150.1246733070585</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="C32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="D32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="E32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="F32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="G32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="H32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="J32" t="n">
-        <v>108.6665459358159</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="K32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="L32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="M32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="N32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="O32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="P32" t="n">
-        <v>151.9036438613542</v>
+        <v>142.1151253347905</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="R32" t="n">
-        <v>151.9036438613542</v>
+        <v>118.4550644623804</v>
       </c>
       <c r="S32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="T32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="U32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="V32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="W32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="X32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="Y32" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>151.9036438613542</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0759430815659</v>
@@ -29876,10 +29876,10 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S33" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="T33" t="n">
-        <v>63.57111200035573</v>
+        <v>70.40554346832613</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="C34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -29919,10 +29919,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="H34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="I34" t="n">
         <v>148.704406723306</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="M34" t="n">
-        <v>148.2857403188506</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>148.2857403188515</v>
       </c>
       <c r="O34" t="n">
-        <v>151.9036438613542</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>151.9036438613542</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>67.37787329201959</v>
       </c>
       <c r="R34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="S34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="T34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="U34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="V34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="W34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="X34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.9036438613542</v>
+        <v>151.9036438613541</v>
       </c>
     </row>
     <row r="35">
@@ -30007,7 +30007,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>48.00372961235512</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.00372961235538</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>220.9066864239676</v>
@@ -30065,16 +30065,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>92.16713910812385</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.0759430815659</v>
@@ -30119,7 +30119,7 @@
         <v>199.0862173745079</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>64.52785251319202</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>167.2069181798455</v>
       </c>
       <c r="S37" t="n">
-        <v>100.5369257066371</v>
+        <v>100.5369257066368</v>
       </c>
       <c r="T37" t="n">
         <v>220.9066864239676</v>
@@ -30244,7 +30244,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="J38" t="n">
-        <v>48.00372961235516</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30265,7 +30265,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>48.00372961235538</v>
       </c>
       <c r="R38" t="n">
         <v>220.9066864239676</v>
@@ -30356,10 +30356,10 @@
         <v>199.0862173745079</v>
       </c>
       <c r="U39" t="n">
+        <v>16.32966507754003</v>
+      </c>
+      <c r="V39" t="n">
         <v>220.9066864239676</v>
-      </c>
-      <c r="V39" t="n">
-        <v>16.32966507754011</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30432,7 +30432,7 @@
         <v>220.1072229623119</v>
       </c>
       <c r="T40" t="n">
-        <v>220.9066864239676</v>
+        <v>101.3363891682927</v>
       </c>
       <c r="U40" t="n">
         <v>220.9066864239676</v>
@@ -30447,7 +30447,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.01435609641999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -30481,7 +30481,7 @@
         <v>202.7792041895605</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30499,10 +30499,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>140.0490382899707</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.7792041895605</v>
+        <v>140.04903828997</v>
       </c>
       <c r="R41" t="n">
         <v>202.7792041895605</v>
@@ -30539,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0759430815659</v>
@@ -30587,10 +30587,10 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S42" t="n">
-        <v>166.71309989434</v>
+        <v>23.22296995517252</v>
       </c>
       <c r="T42" t="n">
-        <v>27.95680084040819</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>184.1178508600787</v>
+        <v>184.1178508600784</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30718,7 +30718,7 @@
         <v>202.7792041895605</v>
       </c>
       <c r="J44" t="n">
-        <v>140.049038289972</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30733,13 +30733,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>140.0490382899703</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.7792041895605</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>202.7792041895605</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.6512419216643</v>
@@ -30824,13 +30824,13 @@
         <v>83.5447696799981</v>
       </c>
       <c r="S45" t="n">
-        <v>166.71309989434</v>
+        <v>102.5889212405612</v>
       </c>
       <c r="T45" t="n">
         <v>199.0862173745079</v>
       </c>
       <c r="U45" t="n">
-        <v>1.579082454214699</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>184.1178508600783</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -30873,7 +30873,7 @@
         <v>160.2327182439978</v>
       </c>
       <c r="I46" t="n">
-        <v>152.9902774014474</v>
+        <v>148.704406723306</v>
       </c>
       <c r="J46" t="n">
         <v>77.49939401566411</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M9" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>6.876045741711437</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>169.8311443711789</v>
       </c>
       <c r="L12" t="n">
         <v>290.3835747859679</v>
       </c>
       <c r="M12" t="n">
-        <v>379.9834547461366</v>
+        <v>113.870747543749</v>
       </c>
       <c r="N12" t="n">
         <v>379.9834547461366</v>
@@ -35504,7 +35504,7 @@
         <v>314.9287555646653</v>
       </c>
       <c r="P12" t="n">
-        <v>139.3017122832102</v>
+        <v>235.5832751144187</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.88056716835678</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>135.1729698558738</v>
@@ -35574,13 +35574,13 @@
         <v>192.3210140765726</v>
       </c>
       <c r="M13" t="n">
-        <v>206.127820624927</v>
+        <v>122.1712534427647</v>
       </c>
       <c r="N13" t="n">
-        <v>203.38282196783</v>
+        <v>209.8399951343282</v>
       </c>
       <c r="O13" t="n">
-        <v>56.29246420033039</v>
+        <v>187.6724253843513</v>
       </c>
       <c r="P13" t="n">
         <v>155.789624253443</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>194.1020119547593</v>
+        <v>290.3835747859679</v>
       </c>
       <c r="M15" t="n">
         <v>379.9834547461366</v>
@@ -35741,7 +35741,7 @@
         <v>314.9287555646653</v>
       </c>
       <c r="P15" t="n">
-        <v>235.5832751144187</v>
+        <v>139.3017122832102</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>192.3210140765726</v>
       </c>
       <c r="M16" t="n">
-        <v>74.7478594409061</v>
+        <v>206.127820624927</v>
       </c>
       <c r="N16" t="n">
-        <v>203.38282196783</v>
+        <v>209.8399951343282</v>
       </c>
       <c r="O16" t="n">
-        <v>187.6724253843513</v>
+        <v>113.8373789258336</v>
       </c>
       <c r="P16" t="n">
         <v>155.789624253443</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0020878920013</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>169.8311443711789</v>
       </c>
       <c r="L18" t="n">
-        <v>194.1020119547593</v>
+        <v>290.3835747859679</v>
       </c>
       <c r="M18" t="n">
-        <v>379.9834547461366</v>
+        <v>9.619637086076018</v>
       </c>
       <c r="N18" t="n">
         <v>379.9834547461366</v>
@@ -35981,7 +35981,7 @@
         <v>235.5832751144187</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>104.2511104576731</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>379.9834547461366</v>
       </c>
       <c r="N21" t="n">
-        <v>349.4540226581678</v>
+        <v>9.619637086075961</v>
       </c>
       <c r="O21" t="n">
         <v>314.9287555646653</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>235.5832751144187</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>104.2511104576731</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>312.6045824130433</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.1385408663253</v>
+        <v>194.1385408663258</v>
       </c>
       <c r="R26" t="n">
-        <v>31.66960884467873</v>
+        <v>31.66960884467812</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.509200288846188</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.690710660489373</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.703625284127298</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.420266583752515</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>72.62527929139443</v>
@@ -36756,13 +36756,13 @@
         <v>153.9176819789114</v>
       </c>
       <c r="L28" t="n">
-        <v>211.0657261996102</v>
+        <v>60.94105289255168</v>
       </c>
       <c r="M28" t="n">
-        <v>81.67674909420184</v>
+        <v>224.8725327479646</v>
       </c>
       <c r="N28" t="n">
-        <v>78.46003395030729</v>
+        <v>179.4595264358575</v>
       </c>
       <c r="O28" t="n">
         <v>56.29246420033039</v>
@@ -36771,7 +36771,7 @@
         <v>24.40966306942213</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.74680001503896</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.62527929139443</v>
       </c>
       <c r="K31" t="n">
-        <v>3.793008671852878</v>
+        <v>153.9176819789114</v>
       </c>
       <c r="L31" t="n">
-        <v>211.0657261996102</v>
+        <v>161.9405453781017</v>
       </c>
       <c r="M31" t="n">
         <v>74.7478594409061</v>
@@ -37002,13 +37002,13 @@
         <v>78.46003395030731</v>
       </c>
       <c r="O31" t="n">
-        <v>206.4171375073889</v>
+        <v>56.29246420033039</v>
       </c>
       <c r="P31" t="n">
         <v>174.5343363764807</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.50009846988606</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>139.1621418050697</v>
+        <v>182.3992397306079</v>
       </c>
       <c r="K32" t="n">
-        <v>319.5730856366777</v>
+        <v>319.5730856366776</v>
       </c>
       <c r="L32" t="n">
-        <v>412.7170870149514</v>
+        <v>412.7170870149513</v>
       </c>
       <c r="M32" t="n">
         <v>458.8831410967098</v>
       </c>
       <c r="N32" t="n">
-        <v>449.0705947983401</v>
+        <v>449.07059479834</v>
       </c>
       <c r="O32" t="n">
-        <v>386.8658903517032</v>
+        <v>386.8658903517031</v>
       </c>
       <c r="P32" t="n">
-        <v>314.3835529673389</v>
+        <v>304.5950344407753</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.917511420621</v>
+        <v>195.9175114206209</v>
       </c>
       <c r="R32" t="n">
-        <v>33.44857939897375</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,19 +37230,19 @@
         <v>3.793008671852878</v>
       </c>
       <c r="L34" t="n">
-        <v>60.94105289255169</v>
+        <v>212.8446967539058</v>
       </c>
       <c r="M34" t="n">
-        <v>223.0335997597567</v>
+        <v>226.6515033022602</v>
       </c>
       <c r="N34" t="n">
-        <v>78.46003395030731</v>
+        <v>226.7457742691588</v>
       </c>
       <c r="O34" t="n">
-        <v>208.1961080616846</v>
+        <v>56.29246420033039</v>
       </c>
       <c r="P34" t="n">
-        <v>176.3133069307763</v>
+        <v>24.40966306942213</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>29.71068536553512</v>
+        <v>29.71068536553518</v>
       </c>
       <c r="J35" t="n">
-        <v>30.4955958692538</v>
+        <v>78.49932548160892</v>
       </c>
       <c r="K35" t="n">
         <v>167.6694417753235</v>
@@ -37324,13 +37324,13 @@
         <v>162.4799091059847</v>
       </c>
       <c r="Q35" t="n">
-        <v>92.01759717162219</v>
+        <v>44.01386755926681</v>
       </c>
       <c r="R35" t="n">
         <v>102.4516219615872</v>
       </c>
       <c r="S35" t="n">
-        <v>23.28251747883748</v>
+        <v>23.28251747883753</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.53329153650328</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>164.9723533216435</v>
+        <v>58.17348020140105</v>
       </c>
       <c r="L36" t="n">
         <v>290.3835747859679</v>
@@ -37400,10 +37400,10 @@
         <v>314.9287555646654</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>235.5832751144187</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.2511104576731</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>29.71068536553512</v>
       </c>
       <c r="J38" t="n">
-        <v>78.49932548160896</v>
+        <v>30.4955958692538</v>
       </c>
       <c r="K38" t="n">
         <v>167.6694417753235</v>
@@ -37561,7 +37561,7 @@
         <v>162.4799091059847</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.01386755926681</v>
+        <v>92.01759717162219</v>
       </c>
       <c r="R38" t="n">
         <v>102.4516219615872</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.53329153650328</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>169.8311443711789</v>
+        <v>58.17348020140105</v>
       </c>
       <c r="L39" t="n">
         <v>290.3835747859679</v>
@@ -37631,7 +37631,7 @@
         <v>391.3681995499866</v>
       </c>
       <c r="N39" t="n">
-        <v>177.1501551640377</v>
+        <v>417.592221327992</v>
       </c>
       <c r="O39" t="n">
         <v>314.9287555646654</v>
@@ -37640,7 +37640,7 @@
         <v>235.5832751144187</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.2511104576731</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.58320313112803</v>
+        <v>11.58320313112808</v>
       </c>
       <c r="J41" t="n">
-        <v>30.4955958692538</v>
+        <v>233.2748000588143</v>
       </c>
       <c r="K41" t="n">
         <v>167.6694417753235</v>
@@ -37795,16 +37795,16 @@
         <v>234.9622464903489</v>
       </c>
       <c r="P41" t="n">
-        <v>302.5289473959555</v>
+        <v>162.4799091059847</v>
       </c>
       <c r="Q41" t="n">
-        <v>246.7930717488273</v>
+        <v>184.0629058492368</v>
       </c>
       <c r="R41" t="n">
-        <v>84.32413972718007</v>
+        <v>84.32413972718012</v>
       </c>
       <c r="S41" t="n">
-        <v>5.155035244430378</v>
+        <v>5.155035244430435</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.53329153650328</v>
+        <v>24.53329153650309</v>
       </c>
       <c r="K42" t="n">
         <v>169.8311443711789</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.28587067814139</v>
+        <v>4.285870678141053</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.58320313112803</v>
+        <v>11.58320313112808</v>
       </c>
       <c r="J44" t="n">
-        <v>170.5446341592258</v>
+        <v>30.4955958692538</v>
       </c>
       <c r="K44" t="n">
         <v>167.6694417753235</v>
@@ -38029,19 +38029,19 @@
         <v>297.1669509369859</v>
       </c>
       <c r="O44" t="n">
-        <v>234.9622464903489</v>
+        <v>437.7414506799095</v>
       </c>
       <c r="P44" t="n">
-        <v>162.4799091059847</v>
+        <v>302.528947395955</v>
       </c>
       <c r="Q44" t="n">
-        <v>246.7930717488273</v>
+        <v>44.01386755926681</v>
       </c>
       <c r="R44" t="n">
-        <v>84.32413972718007</v>
+        <v>84.32413972718012</v>
       </c>
       <c r="S44" t="n">
-        <v>5.155035244430378</v>
+        <v>5.155035244430435</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.53329153650466</v>
+        <v>24.53329153650328</v>
       </c>
       <c r="K45" t="n">
         <v>169.8311443711789</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>4.285870678141046</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.285870678141362</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
